--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/24022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/24022026.xlsx
@@ -1,118 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martes, 24 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Mateo
-Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
-*Oración de la mañana*
-Oración de la Mañana:
-Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
-Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
-Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
-En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -136,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -482,193 +456,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>martes, 24 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 7-15 En aquel tiempo, Jesús dijo a sus discípulos: “Cuando ustedes hagan oración no hablen mucho, como los paganos, que se imaginan que a fuerza de mucho hablar, serán escuchados. No los imiten, porque el Padre sabe lo que les hace falta, antes de que se lo pidan. Ustedes, pues, oren así: Padre nuestro, que estás en el cielo, santificado sea tu nombre, venga tu Reino, hágase tu voluntad en la tierra como en el cielo. Danos hoy nuestro pan de cada día, perdona nuestras ofensas, como también nosotros perdonamos a los que nos ofenden; no nos dejes caer en tentación y líbranos del mal. Si ustedes perdonan las faltas a los hombres, también a ustedes los perdonará el Padre celestial. Pero si ustedes no perdonan a los hombres, tampoco el Padre les perdonará a ustedes sus faltas”.
+*Oración de la mañana*
+Oración de la Mañana:
+Amado Jesús, que nos enseñas a orar con sencillez y sinceridad, ayúdanos a hablar contigo desde el corazón, sin pretensiones, sin palabras vanas. Concédenos la sabiduría para comprender que no es la cantidad de nuestras palabras, sino la calidad de nuestra fe y entrega, lo que da valor a nuestra oración.
+Querido Padre Celestial, gracias por el regalo de este nuevo día, por permitirnos despertar y vivir en tu amor. Te pedimos que nos ayudes a perdonar a quienes nos han ofendido, así como Tú perdonas nuestras faltas. Que en cada acción, en cada pensamiento, busquemos siempre tu voluntad, y que tu Reino de amor y paz se haga presente en nosotros.
+Espíritu Santo, soplo de vida, ilumina nuestros caminos y guía nuestras decisiones. Enséñanos a ser misericordiosos, a ser constructores de puentes de reconciliación. Derrama tus dones sobre nosotros, para que podamos enfrentar las tentaciones y los desafíos de cada día con valentía y fe.
+En unidad y amor, nos encomendamos a Ti, Trinidad Santa. Que nuestras vidas sean un reflejo de tu amor y misericordia. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>